--- a/data/bus.xlsx
+++ b/data/bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/594R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5C374-47F3-664D-A27E-5AFFC9104B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D8F906-FC4C-0248-97B8-499E0A083F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{EA5A8DEE-2657-A344-81C9-08760454B436}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>cost/rbus/yr</t>
+  </si>
+  <si>
+    <t>cost_reg</t>
   </si>
 </sst>
 </file>
@@ -457,15 +460,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4549D890-8570-1B4F-B7FE-85F15B73E954}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,14 +514,17 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>321800*11</f>
-        <v>3539800</v>
+        <f>321800*15.1</f>
+        <v>4859180</v>
       </c>
       <c r="C2">
         <f>$K$5*$M$5</f>
@@ -527,11 +536,11 @@
       </c>
       <c r="E2">
         <f>N2*O2</f>
-        <v>16500000</v>
+        <v>15750000</v>
       </c>
       <c r="F2">
         <f>N2*O2/2</f>
-        <v>8250000</v>
+        <v>7875000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -555,73 +564,76 @@
         <v>750000</v>
       </c>
       <c r="O2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f>B2+$O$5*B$2</f>
-        <v>3610596</v>
+        <v>4956363.5999999996</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D18" si="0">C2+$O$5*C$2</f>
+        <f>C2+$O$5*C$2</f>
         <v>163200</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>D2+$O$5*D$2</f>
         <v>224400</v>
       </c>
       <c r="E3">
         <f>E2+$J$11*$O$2</f>
-        <v>16760068.6</v>
+        <v>15998247.300000001</v>
       </c>
       <c r="F3">
         <f>F2+$J$11*$O$2/2+$K$11*$O$2/2</f>
-        <v>9248240.0999999996</v>
+        <v>8827865.5500000007</v>
       </c>
       <c r="G3">
-        <f>G2+IF($J$8*A3&lt;=$O$2,$J$8*$N$2,0)+MIN($O$2,$J$8*A3)*$J$11+MAX(0,$O$2-$J$8*A3)*$K$11</f>
-        <v>3102198.6</v>
+        <f>G2+$J$8*$N$2+A3*$J$8*$J$11+($O$2-A3*$J$8)*$K$11</f>
+        <v>3023270.8</v>
       </c>
       <c r="H3">
         <f>H2+$K$11*$O$2</f>
-        <v>1736411.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1657483.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B25" si="1">B3+$O$5*B$2</f>
-        <v>3681392</v>
+        <f>B3+$O$5*B$2</f>
+        <v>5053547.1999999993</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>C3+$O$5*C$2</f>
         <v>166400</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>D3+$O$5*D$2</f>
         <v>228800</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E25" si="2">E3+$J$11*$O$2</f>
-        <v>17020137.199999999</v>
+        <f>E3+$J$11*$O$2</f>
+        <v>16246494.600000001</v>
       </c>
       <c r="F4">
         <f>F3+$J$11*$O$2/2+$K$11*$O$2/2</f>
-        <v>10246480.200000001</v>
+        <v>9780731.1000000015</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G25" si="3">G3+IF($J$8*A4&lt;=$O$2,$J$8*$N$2,0)+MIN($O$2,$J$8*A4)*$J$11+MAX(0,$O$2-$J$8*A4)*$K$11</f>
-        <v>6070184.2000000002</v>
+        <f>G3+$J$8*$N$2+A4*$J$8*$J$11+($O$2-A4*$J$8)*$K$11</f>
+        <v>5912328.5999999996</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H25" si="4">H3+$K$11*$O$2</f>
-        <v>3472823.2</v>
+        <f t="shared" ref="H4:H25" si="0">H3+$K$11*$O$2</f>
+        <v>3314967.6</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -642,37 +654,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>3752188</v>
+        <f>B4+$O$5*B$2</f>
+        <v>5150730.7999999989</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>C4+$O$5*C$2</f>
         <v>169600</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>D4+$O$5*D$2</f>
         <v>233200</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>17280205.800000001</v>
+        <f>E4+$J$11*$O$2</f>
+        <v>16494741.900000002</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F25" si="5">F4+$J$11*$O$2/2+$K$11*$O$2/2</f>
-        <v>11244720.300000003</v>
+        <f>F4+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>10733596.650000002</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>8903956.8000000007</v>
+        <f>G4+$J$8*$N$2+A5*$J$8*$J$11+($O$2-A5*$J$8)*$K$11</f>
+        <v>8667173.3999999985</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
-        <v>5209234.8000000007</v>
+        <f t="shared" si="0"/>
+        <v>4972451.4000000004</v>
       </c>
       <c r="J5">
         <v>48213</v>
@@ -694,179 +706,179 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>3822984</v>
+        <f>B5+$O$5*B$2</f>
+        <v>5247914.3999999985</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>C5+$O$5*C$2</f>
         <v>172800</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>D5+$O$5*D$2</f>
         <v>237600</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>17540274.400000002</v>
+        <f>E5+$J$11*$O$2</f>
+        <v>16742989.200000003</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
-        <v>12242960.400000004</v>
+        <f>F5+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>11686462.200000003</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>11603516.4</v>
+        <f>G5+$J$8*$N$2+A6*$J$8*$J$11+($O$2-A6*$J$8)*$K$11</f>
+        <v>11287805.199999999</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
-        <v>6945646.4000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>6629935.2000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>3893780</v>
+        <f>B6+$O$5*B$2</f>
+        <v>5345097.9999999981</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>C6+$O$5*C$2</f>
         <v>176000</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>D6+$O$5*D$2</f>
         <v>242000</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>17800343.000000004</v>
+        <f>E6+$J$11*$O$2</f>
+        <v>16991236.500000004</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
-        <v>13241200.500000006</v>
+        <f>F6+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>12639327.750000004</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>14168863</v>
+        <f>G6+$J$8*$N$2+A7*$J$8*$J$11+($O$2-A7*$J$8)*$K$11</f>
+        <v>13774224</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>8682058</v>
+        <f t="shared" si="0"/>
+        <v>8287419</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>3964576</v>
+        <f>B7+$O$5*B$2</f>
+        <v>5442281.5999999978</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>C7+$O$5*C$2</f>
         <v>179200</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>D7+$O$5*D$2</f>
         <v>246400</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>18060411.600000005</v>
+        <f>E7+$J$11*$O$2</f>
+        <v>17239483.800000004</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
-        <v>14239440.600000007</v>
+        <f>F7+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>13592193.300000004</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>16599996.6</v>
+        <f>G7+$J$8*$N$2+A8*$J$8*$J$11+($O$2-A8*$J$8)*$K$11</f>
+        <v>16126429.799999999</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>10418469.6</v>
+        <f t="shared" si="0"/>
+        <v>9944902.8000000007</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>4035372</v>
+        <f>B8+$O$5*B$2</f>
+        <v>5539465.1999999974</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>C8+$O$5*C$2</f>
         <v>182400</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>D8+$O$5*D$2</f>
         <v>250800</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>18320480.200000007</v>
+        <f>E8+$J$11*$O$2</f>
+        <v>17487731.100000005</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
-        <v>15237680.700000009</v>
+        <f>F8+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>14545058.850000005</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>18896917.199999999</v>
+        <f>G8+$J$8*$N$2+A9*$J$8*$J$11+($O$2-A9*$J$8)*$K$11</f>
+        <v>18344422.599999998</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>12154881.199999999</v>
+        <f t="shared" si="0"/>
+        <v>11602386.600000001</v>
       </c>
       <c r="O9">
         <f>O5*B2/11</f>
-        <v>6436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>8834.8727272727283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>4106168</v>
+        <f>B9+$O$5*B$2</f>
+        <v>5636648.799999997</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>C9+$O$5*C$2</f>
         <v>185600</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>D9+$O$5*D$2</f>
         <v>255200</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>18580548.800000008</v>
+        <f>E9+$J$11*$O$2</f>
+        <v>17735978.400000006</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
-        <v>16235920.80000001</v>
+        <f>F9+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>15497924.400000006</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>21059624.800000001</v>
+        <f>G9+$J$8*$N$2+A10*$J$8*$J$11+($O$2-A10*$J$8)*$K$11</f>
+        <v>20428202.399999999</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
-        <v>13891292.799999999</v>
+        <f t="shared" si="0"/>
+        <v>13259870.400000002</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -875,37 +887,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>4176964</v>
+        <f>B10+$O$5*B$2</f>
+        <v>5733832.3999999966</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>C10+$O$5*C$2</f>
         <v>188800</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>D10+$O$5*D$2</f>
         <v>259600</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>18840617.40000001</v>
+        <f>E10+$J$11*$O$2</f>
+        <v>17984225.700000007</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
-        <v>17234160.90000001</v>
+        <f>F10+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>16450789.950000007</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>23088119.399999999</v>
+        <f>G10+$J$8*$N$2+A11*$J$8*$J$11+($O$2-A11*$J$8)*$K$11</f>
+        <v>22377769.199999996</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
-        <v>15627704.399999999</v>
+        <f t="shared" si="0"/>
+        <v>14917354.200000003</v>
       </c>
       <c r="J11">
         <f>J5*K2+M2</f>
@@ -916,169 +928,169 @@
         <v>78927.8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
-        <v>4247760</v>
+        <f>B11+$O$5*B$2</f>
+        <v>5831015.9999999963</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>C11+$O$5*C$2</f>
         <v>192000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>D11+$O$5*D$2</f>
         <v>264000</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>19100686.000000011</v>
+        <f>E11+$J$11*$O$2</f>
+        <v>18232473.000000007</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
-        <v>18232401.000000011</v>
+        <f>F11+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>17403655.500000007</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>24982401</v>
+        <f>G11+$J$8*$N$2+A12*$J$8*$J$11+($O$2-A12*$J$8)*$K$11</f>
+        <v>24193122.999999996</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
-        <v>17364116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>16574838.000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>4318556</v>
+        <f>B12+$O$5*B$2</f>
+        <v>5928199.5999999959</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>C12+$O$5*C$2</f>
         <v>195200</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>D12+$O$5*D$2</f>
         <v>268400</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>19360754.600000013</v>
+        <f>E12+$J$11*$O$2</f>
+        <v>18480720.300000008</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
-        <v>19230641.100000013</v>
+        <f>F12+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>18356521.050000004</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>26742469.600000001</v>
+        <f>G12+$J$8*$N$2+A13*$J$8*$J$11+(1)*$K$11</f>
+        <v>26032119.399999999</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
-        <v>19100527.600000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>18232321.800000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
-        <v>4389352</v>
+        <f>B13+$O$5*B$2+B$2</f>
+        <v>10884563.199999996</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>198400</v>
+        <f>C13+$O$5*C$2+C$2</f>
+        <v>358400</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>272800</v>
+        <f>D13+$O$5*D$2+D$2</f>
+        <v>492800</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>19620823.200000014</v>
+        <f>E13+$J$11*$O$2+N2*O2</f>
+        <v>34478967.600000009</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
-        <v>20228881.200000014</v>
+        <f>F13+$J$11*$O$2/2+$K$11*$O$2/2+N2*O2/2+P2*O2/2</f>
+        <v>37684386.600000001</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>27002538.200000003</v>
+        <f>G13+$O$2*$J$11+O2*N2</f>
+        <v>42030366.700000003</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
-        <v>20836939.200000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <f>H13+$K$11*$O$2+O2*P2</f>
+        <v>40889805.600000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>4460148</v>
+        <f>B14+$O$5*B$2</f>
+        <v>10981746.799999995</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>201600</v>
+        <f>C14+$O$5*C$2</f>
+        <v>361600</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>277200</v>
+        <f>D14+$O$5*D$2</f>
+        <v>497200</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>19880891.800000016</v>
+        <f>E14+$J$11*$O$2</f>
+        <v>34727214.900000006</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
-        <v>21227121.300000016</v>
+        <f>F14+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>38637252.149999999</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>27262606.800000004</v>
+        <f t="shared" ref="G15:G25" si="1">G14+$O$2*$J$11</f>
+        <v>42278614</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
-        <v>22573350.800000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>42547289.400000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
+        <f>B15+$O$5*B$2</f>
+        <v>11078930.399999995</v>
+      </c>
+      <c r="C16">
+        <f>C15+$O$5*C$2</f>
+        <v>364800</v>
+      </c>
+      <c r="D16">
+        <f>D15+$O$5*D$2</f>
+        <v>501600</v>
+      </c>
+      <c r="E16">
+        <f>E15+$J$11*$O$2</f>
+        <v>34975462.200000003</v>
+      </c>
+      <c r="F16">
+        <f>F15+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>39590117.699999996</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>4530944</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>204800</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>281600</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>20140960.400000017</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>22225361.400000017</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>27522675.400000006</v>
+        <v>42526861.299999997</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
-        <v>24309762.400000006</v>
+        <f t="shared" si="0"/>
+        <v>44204773.200000003</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1086,32 +1098,32 @@
         <v>15</v>
       </c>
       <c r="B17">
+        <f>B16+$O$5*B$2</f>
+        <v>11176113.999999994</v>
+      </c>
+      <c r="C17">
+        <f>C16+$O$5*C$2</f>
+        <v>368000</v>
+      </c>
+      <c r="D17">
+        <f>D16+$O$5*D$2</f>
+        <v>506000</v>
+      </c>
+      <c r="E17">
+        <f>E16+$J$11*$O$2</f>
+        <v>35223709.5</v>
+      </c>
+      <c r="F17">
+        <f>F16+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>40542983.249999993</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>4601740</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>208000</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>286000</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>20401029.000000019</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>23223601.500000019</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>27782744.000000007</v>
+        <v>42775108.599999994</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
-        <v>26046174.000000007</v>
+        <f t="shared" si="0"/>
+        <v>45862257</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1119,32 +1131,32 @@
         <v>16</v>
       </c>
       <c r="B18">
+        <f>B17+$O$5*B$2</f>
+        <v>11273297.599999994</v>
+      </c>
+      <c r="C18">
+        <f>C17+$O$5*C$2</f>
+        <v>371200</v>
+      </c>
+      <c r="D18">
+        <f>D17+$O$5*D$2</f>
+        <v>510400</v>
+      </c>
+      <c r="E18">
+        <f>E17+$J$11*$O$2</f>
+        <v>35471956.799999997</v>
+      </c>
+      <c r="F18">
+        <f>F17+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>41495848.79999999</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>4672536</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>211200</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>290400</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>20661097.60000002</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>24221841.60000002</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>28042812.600000009</v>
+        <v>43023355.899999991</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
-        <v>27782585.600000009</v>
+        <f t="shared" si="0"/>
+        <v>47519740.799999997</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1152,32 +1164,32 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <f>B18+$O$5*B$2</f>
+        <v>11370481.199999994</v>
+      </c>
+      <c r="C19">
+        <f>C18+$O$5*C$2</f>
+        <v>374400</v>
+      </c>
+      <c r="D19">
+        <f>D18+$O$5*D$2</f>
+        <v>514800</v>
+      </c>
+      <c r="E19">
+        <f>E18+$J$11*$O$2</f>
+        <v>35720204.099999994</v>
+      </c>
+      <c r="F19">
+        <f>F18+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>42448714.349999987</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>4743332</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19:C25" si="6">C18+$O$5*C$2</f>
-        <v>214400</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D25" si="7">D18+$O$5*D$2</f>
-        <v>294800</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>20921166.200000022</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
-        <v>25220081.700000022</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>28302881.20000001</v>
+        <v>43271603.199999988</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
-        <v>29518997.20000001</v>
+        <f t="shared" si="0"/>
+        <v>49177224.599999994</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1185,32 +1197,32 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <f>B19+$O$5*B$2</f>
+        <v>11467664.799999993</v>
+      </c>
+      <c r="C20">
+        <f>C19+$O$5*C$2</f>
+        <v>377600</v>
+      </c>
+      <c r="D20">
+        <f>D19+$O$5*D$2</f>
+        <v>519200</v>
+      </c>
+      <c r="E20">
+        <f>E19+$J$11*$O$2</f>
+        <v>35968451.399999991</v>
+      </c>
+      <c r="F20">
+        <f>F19+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>43401579.899999984</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>4814128</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="6"/>
-        <v>217600</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="7"/>
-        <v>299200</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>21181234.800000023</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>26218321.800000023</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>28562949.800000012</v>
+        <v>43519850.499999985</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
-        <v>31255408.800000012</v>
+        <f t="shared" si="0"/>
+        <v>50834708.399999991</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,32 +1230,32 @@
         <v>19</v>
       </c>
       <c r="B21">
+        <f>B20+$O$5*B$2</f>
+        <v>11564848.399999993</v>
+      </c>
+      <c r="C21">
+        <f>C20+$O$5*C$2</f>
+        <v>380800</v>
+      </c>
+      <c r="D21">
+        <f>D20+$O$5*D$2</f>
+        <v>523600</v>
+      </c>
+      <c r="E21">
+        <f>E20+$J$11*$O$2</f>
+        <v>36216698.699999988</v>
+      </c>
+      <c r="F21">
+        <f>F20+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>44354445.449999981</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>4884924</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="6"/>
-        <v>220800</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="7"/>
-        <v>303600</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>21441303.400000025</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>27216561.900000025</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>28823018.400000013</v>
+        <v>43768097.799999982</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
-        <v>32991820.400000013</v>
+        <f t="shared" si="0"/>
+        <v>52492192.199999988</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1251,32 +1263,32 @@
         <v>20</v>
       </c>
       <c r="B22">
+        <f>B21+$O$5*B$2</f>
+        <v>11662031.999999993</v>
+      </c>
+      <c r="C22">
+        <f>C21+$O$5*C$2</f>
+        <v>384000</v>
+      </c>
+      <c r="D22">
+        <f>D21+$O$5*D$2</f>
+        <v>528000</v>
+      </c>
+      <c r="E22">
+        <f>E21+$J$11*$O$2</f>
+        <v>36464945.999999985</v>
+      </c>
+      <c r="F22">
+        <f>F21+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>45307310.999999978</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>4955720</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="6"/>
-        <v>224000</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="7"/>
-        <v>308000</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>21701372.000000026</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>28214802.000000026</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>29083087.000000015</v>
+        <v>44016345.099999979</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
-        <v>34728232.000000015</v>
+        <f t="shared" si="0"/>
+        <v>54149675.999999985</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1284,32 +1296,32 @@
         <v>21</v>
       </c>
       <c r="B23">
+        <f>B22+$O$5*B$2</f>
+        <v>11759215.599999992</v>
+      </c>
+      <c r="C23">
+        <f>C22+$O$5*C$2</f>
+        <v>387200</v>
+      </c>
+      <c r="D23">
+        <f>D22+$O$5*D$2</f>
+        <v>532400</v>
+      </c>
+      <c r="E23">
+        <f>E22+$J$11*$O$2</f>
+        <v>36713193.299999982</v>
+      </c>
+      <c r="F23">
+        <f>F22+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>46260176.549999975</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>5026516</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="6"/>
-        <v>227200</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="7"/>
-        <v>312400</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>21961440.600000028</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>29213042.100000028</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>29343155.600000016</v>
+        <v>44264592.399999976</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
-        <v>36464643.600000016</v>
+        <f t="shared" si="0"/>
+        <v>55807159.799999982</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1317,32 +1329,32 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <f>B23+$O$5*B$2</f>
+        <v>11856399.199999992</v>
+      </c>
+      <c r="C24">
+        <f>C23+$O$5*C$2</f>
+        <v>390400</v>
+      </c>
+      <c r="D24">
+        <f>D23+$O$5*D$2</f>
+        <v>536800</v>
+      </c>
+      <c r="E24">
+        <f>E23+$J$11*$O$2</f>
+        <v>36961440.599999979</v>
+      </c>
+      <c r="F24">
+        <f>F23+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>47213042.099999972</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>5097312</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="6"/>
-        <v>230400</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="7"/>
-        <v>316800</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>22221509.200000029</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>30211282.200000029</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>29603224.200000018</v>
+        <v>44512839.699999973</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
-        <v>38201055.200000018</v>
+        <f t="shared" si="0"/>
+        <v>57464643.599999979</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1350,32 +1362,32 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <f>B24+$O$5*B$2</f>
+        <v>11953582.799999991</v>
+      </c>
+      <c r="C25">
+        <f>C24+$O$5*C$2</f>
+        <v>393600</v>
+      </c>
+      <c r="D25">
+        <f>D24+$O$5*D$2</f>
+        <v>541200</v>
+      </c>
+      <c r="E25">
+        <f>E24+$J$11*$O$2</f>
+        <v>37209687.899999976</v>
+      </c>
+      <c r="F25">
+        <f>F24+$J$11*$O$2/2+$K$11*$O$2/2</f>
+        <v>48165907.649999969</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>5168108</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="6"/>
-        <v>233600</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="7"/>
-        <v>321200</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>22481577.800000031</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="5"/>
-        <v>31209522.300000031</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>29863292.800000019</v>
+        <v>44761086.99999997</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
-        <v>39937466.800000019</v>
+        <f t="shared" si="0"/>
+        <v>59122127.399999976</v>
       </c>
     </row>
   </sheetData>
